--- a/EgitimKatilimFormu.xlsx
+++ b/EgitimKatilimFormu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahit.tabak.NETONE\Dropbox\DMS\Projects\Development\201608-LinuxEgitimi\LinuxEgitimi\NOC-Destek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Libraries\Dropbox\NOC-Destek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Icerik" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>TURKNET EĞİTİM KATILIM FORMU</t>
   </si>
@@ -96,11 +96,50 @@
   <si>
     <t>Ceren Hakverdi</t>
   </si>
+  <si>
+    <t>eylem</t>
+  </si>
+  <si>
+    <t>emrah</t>
+  </si>
+  <si>
+    <t>emren</t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>mustafa</t>
+  </si>
+  <si>
+    <t>orkun</t>
+  </si>
+  <si>
+    <t>sena</t>
+  </si>
+  <si>
+    <t>dogan</t>
+  </si>
+  <si>
+    <t>gozde</t>
+  </si>
+  <si>
+    <t>gulfem</t>
+  </si>
+  <si>
+    <t>gunhan</t>
+  </si>
+  <si>
+    <t>yigit</t>
+  </si>
+  <si>
+    <t>ceren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -350,6 +389,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,17 +417,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +715,7 @@
   </sheetPr>
   <dimension ref="A1:I983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
@@ -689,17 +729,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -726,17 +766,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -4666,10 +4706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4682,51 +4722,51 @@
     <col min="26" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -4740,11 +4780,11 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8">
@@ -4769,8 +4809,8 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4783,8 +4823,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -4798,8 +4841,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -4813,8 +4859,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -4828,8 +4877,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -4843,8 +4895,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -4858,8 +4913,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -4873,8 +4931,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -4888,8 +4949,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -4903,8 +4967,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -4918,8 +4985,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -4933,8 +5003,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -4948,8 +5021,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -4963,66 +5039,69 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
